--- a/data/trans_dic/P6906-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6906-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,46%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>21,02; 53,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>24,41; 50,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>8,9; 46,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>11,51; 49,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>29,44; 61,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>18,71; 56,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>20,82; 43,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>30,87; 51,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>17,7; 44,37</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>12,38; 36,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>19,12; 43,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>9,02; 26,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>13,07; 44,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>6,07; 33,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>8,82; 38,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>14,32; 41,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>24,59; 49,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>12,78; 31,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>17,4; 36,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>12,73; 26,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>22,08; 42,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>7,32; 36,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>11,39; 45,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 17,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>7,33; 27,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,63; 37,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>10,52; 51,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 53,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>14,99; 35,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>6,96; 29,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>15,56; 40,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0,0; 24,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>13,1; 27,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,57%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>10,28; 32,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>28,17; 49,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>28,94; 66,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>13,87; 54,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,0; 28,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>25,44; 52,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>26,18; 61,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>16,25; 42,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>9,91; 27,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>29,62; 46,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>33,07; 58,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>18,81; 42,89</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>3,52; 33,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>0,0; 31,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>12,99; 68,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>2,78; 26,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 69,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>6,74; 62,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 84,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>1,47; 24,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>2,96; 28,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>3,56; 32,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>14,76; 59,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>3,83; 21,45</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>9,97; 35,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>7,04; 28,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 25,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>7,36; 30,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 44,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>13,21; 60,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>24,94; 88,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>14,62; 40,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>9,23; 31,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>12,13; 33,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>9,09; 38,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>13,22; 30,27</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,99%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>10,16; 26,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>13,16; 38,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>9,98; 29,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>10,71; 30,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>14,19; 40,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>16,68; 42,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>15,09; 39,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>24,29; 43,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>14,66; 27,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>18,0; 36,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>15,4; 30,18</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>19,54; 33,88</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>19,14; 36,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>6,94; 29,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>15,92; 45,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>3,47; 20,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>17,76; 41,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>10,36; 49,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>5,29; 45,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>6,23; 23,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>20,98; 35,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>11,16; 31,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>15,69; 39,78</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>6,62; 17,76</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,64%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>18,68; 26,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>21,5; 31,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>19,45; 29,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>14,06; 22,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>16,67; 27,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>23,1; 35,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>26,98; 39,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>22,33; 31,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>19,21; 25,93</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>23,55; 31,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>23,64; 31,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>19,59; 26,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,69%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,97; 62,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 46,75</t>
+          <t>8,63; 47,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,57; 60,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 56,3</t>
+          <t>18,98; 57,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,08; 56,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,7; 44,37</t>
+          <t>17,79; 45,51</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>31,62%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,07; 44,59</t>
+          <t>13,16; 45,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 49,99</t>
+          <t>24,58; 49,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,08; 42,71</t>
+          <t>22,19; 43,07</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,39%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 27,92</t>
+          <t>7,28; 28,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,99; 35,24</t>
+          <t>14,92; 35,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 27,19</t>
+          <t>12,98; 27,02</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>23,8%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,17; 49,58</t>
+          <t>18,87; 47,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 54,43</t>
+          <t>13,7; 54,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 52,23</t>
+          <t>19,45; 54,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 42,73</t>
+          <t>5,22; 39,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 46,02</t>
+          <t>21,95; 44,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,81; 42,89</t>
+          <t>9,51; 37,38</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 26,65</t>
+          <t>2,76; 26,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 24,83</t>
+          <t>1,56; 24,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 21,45</t>
+          <t>3,82; 21,4</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 30,01</t>
+          <t>7,23; 29,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,62; 40,48</t>
+          <t>14,71; 40,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 30,27</t>
+          <t>13,0; 29,98</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>25,72%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,71; 30,83</t>
+          <t>10,63; 30,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,29; 43,51</t>
+          <t>24,15; 43,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,54; 33,88</t>
+          <t>19,56; 33,66</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 20,26</t>
+          <t>3,46; 20,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 23,45</t>
+          <t>6,45; 23,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,76</t>
+          <t>6,64; 17,7</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,06; 22,85</t>
+          <t>14,39; 23,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,33; 31,4</t>
+          <t>18,32; 30,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 26,09</t>
+          <t>17,96; 25,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6906-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6906-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,02; 53,09</t>
+          <t>21,59; 52,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,97; 62,54</t>
+          <t>31,15; 64,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,41; 50,21</t>
+          <t>23,81; 52,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 47,95</t>
+          <t>8,1; 46,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 49,73</t>
+          <t>13,0; 49,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 60,46</t>
+          <t>23,12; 64,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,44; 61,55</t>
+          <t>30,99; 62,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,98; 57,97</t>
+          <t>20,79; 58,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 43,97</t>
+          <t>22,11; 45,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,08; 56,45</t>
+          <t>31,96; 56,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,87; 51,69</t>
+          <t>30,16; 51,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 45,51</t>
+          <t>17,77; 44,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 36,39</t>
+          <t>12,91; 35,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 43,43</t>
+          <t>18,94; 44,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,02; 26,16</t>
+          <t>9,05; 27,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,16; 45,76</t>
+          <t>13,18; 48,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 33,29</t>
+          <t>8,44; 36,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 38,02</t>
+          <t>8,36; 38,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 41,04</t>
+          <t>15,95; 41,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 49,75</t>
+          <t>22,66; 48,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 31,32</t>
+          <t>13,79; 31,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 36,53</t>
+          <t>18,44; 36,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 26,9</t>
+          <t>13,15; 27,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 43,07</t>
+          <t>22,17; 43,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 36,02</t>
+          <t>5,47; 35,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 45,36</t>
+          <t>11,72; 46,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,33</t>
+          <t>0,0; 17,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 28,14</t>
+          <t>7,34; 28,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 37,01</t>
+          <t>4,61; 36,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 51,92</t>
+          <t>10,37; 50,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,69</t>
+          <t>0,0; 54,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 35,32</t>
+          <t>14,51; 35,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 29,55</t>
+          <t>8,12; 30,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 40,63</t>
+          <t>13,56; 40,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,38</t>
+          <t>0,0; 25,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 27,02</t>
+          <t>12,71; 26,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 32,11</t>
+          <t>10,53; 32,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 47,38</t>
+          <t>17,24; 46,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,94; 66,89</t>
+          <t>28,47; 64,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,7; 54,46</t>
+          <t>14,37; 51,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,62</t>
+          <t>0,0; 30,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 54,5</t>
+          <t>18,86; 56,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,18; 61,58</t>
+          <t>24,57; 60,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 39,15</t>
+          <t>6,7; 39,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 27,62</t>
+          <t>9,34; 26,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,95; 44,6</t>
+          <t>23,49; 44,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,07; 58,22</t>
+          <t>31,26; 57,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 37,38</t>
+          <t>9,95; 37,7</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 33,03</t>
+          <t>3,62; 28,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,32</t>
+          <t>0,0; 30,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,99; 68,47</t>
+          <t>11,05; 66,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 26,51</t>
+          <t>2,81; 26,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,72</t>
+          <t>0,0; 58,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 62,82</t>
+          <t>6,7; 58,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,13</t>
+          <t>0,0; 84,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 24,89</t>
+          <t>1,61; 25,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 28,64</t>
+          <t>3,05; 28,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 32,06</t>
+          <t>3,53; 30,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,76; 59,25</t>
+          <t>15,0; 60,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,82; 21,4</t>
+          <t>3,94; 21,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 35,43</t>
+          <t>9,35; 36,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,04; 28,25</t>
+          <t>6,81; 29,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,9</t>
+          <t>0,0; 27,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 29,9</t>
+          <t>6,09; 31,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,88</t>
+          <t>0,0; 43,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 60,84</t>
+          <t>12,75; 62,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,94; 88,92</t>
+          <t>16,1; 88,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 40,56</t>
+          <t>14,82; 40,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 31,69</t>
+          <t>10,66; 33,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,13; 33,54</t>
+          <t>11,71; 31,64</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,09; 38,71</t>
+          <t>7,21; 37,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 29,98</t>
+          <t>13,49; 31,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 26,81</t>
+          <t>10,9; 28,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,16; 38,94</t>
+          <t>13,38; 37,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,98; 29,51</t>
+          <t>10,05; 30,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,63; 30,89</t>
+          <t>9,95; 29,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 40,88</t>
+          <t>15,41; 42,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 42,95</t>
+          <t>17,04; 43,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 39,47</t>
+          <t>14,3; 37,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,15; 43,28</t>
+          <t>24,17; 43,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,66; 27,98</t>
+          <t>13,49; 28,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,0; 36,19</t>
+          <t>17,28; 35,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 30,18</t>
+          <t>14,73; 29,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,56; 33,66</t>
+          <t>19,53; 32,92</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,14; 36,61</t>
+          <t>19,35; 36,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,94; 29,61</t>
+          <t>5,01; 28,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,92; 45,38</t>
+          <t>15,7; 45,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 20,35</t>
+          <t>3,65; 19,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,76; 41,69</t>
+          <t>17,33; 43,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,36; 49,17</t>
+          <t>10,96; 49,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 45,16</t>
+          <t>4,97; 47,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,45; 23,53</t>
+          <t>6,72; 24,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,98; 35,31</t>
+          <t>21,18; 35,17</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>11,16; 31,09</t>
+          <t>11,44; 31,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,69; 39,78</t>
+          <t>15,73; 40,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,64; 17,7</t>
+          <t>6,55; 18,85</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,81</t>
+          <t>18,65; 26,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,5; 31,52</t>
+          <t>20,88; 31,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,45; 29,0</t>
+          <t>19,25; 29,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,39; 23,34</t>
+          <t>14,76; 24,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,71</t>
+          <t>16,67; 27,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,1; 35,86</t>
+          <t>23,69; 36,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,98; 39,47</t>
+          <t>26,65; 39,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,32; 30,06</t>
+          <t>18,18; 29,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,21; 25,93</t>
+          <t>19,33; 25,67</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,38</t>
+          <t>23,65; 31,42</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,07</t>
+          <t>23,8; 31,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,58</t>
+          <t>18,36; 26,11</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población quesu trabajo le afecta de manera que tiene problemas de sueño</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15285</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18980</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21427</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5995</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7950</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11712</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18926</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5829</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23236</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30691</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40353</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11824</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9252; 22524</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12575; 25907</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13945; 30580</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1949; 11127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3720; 14238</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6741; 18783</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12669; 25520</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3275; 9145</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15801; 32348</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22219; 39041</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29998; 51039</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7078; 17911</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16696</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17209</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13193</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12982</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5871</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7011</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11353</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16021</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22567</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24220</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24546</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9347; 25563</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10720; 25155</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7492; 23109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6099; 22621</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2760; 11828</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2869; 13149</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6812; 17801</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10297; 21895</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14494; 33546</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16767; 33073</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16496; 34931</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20337; 40008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6371</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6753</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7386</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3024</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4915</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1657</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11117</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9395</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11668</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18503</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2002; 13005</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2967; 11692</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3725</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3632; 14239</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1002; 7964</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1860; 9022</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6757</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6664; 16429</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4738; 17634</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5863; 17462</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8627</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12125; 25610</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11585</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13843</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15018</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12184</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2117</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10433</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12934</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16611</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13702</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24276</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27951</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>28795</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6141; 19197</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7734; 20698</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9243; 21038</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5800; 20637</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7028</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5570; 16801</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7355; 18108</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5406; 31987</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7567; 21544</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17477; 32859</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19505; 36117</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12044; 45622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2888</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3902</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7228</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>832; 6628</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4975</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1643; 9887</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>500; 4754</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4052</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>782; 6864</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4869</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>176; 2779</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>914; 8664</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>983; 8524</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3097; 12386</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1133; 6163</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8987</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6920</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5167</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5120</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4579</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7838</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11057</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12041</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6443</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13005</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3909; 15170</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2956; 12659</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6067</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1925; 9947</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6102</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1936; 9495</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1196; 6597</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4479; 12198</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5962; 18576</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6856; 18531</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2153; 11100</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8343; 19331</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15524</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13165</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14726</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11388</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>13237</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>14478</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23250</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26912</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26403</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>29205</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36958</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9643; 25080</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7284; 20534</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7872; 23647</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7280; 21473</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6710; 18659</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7901; 20282</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7964; 20730</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17050; 30601</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17803; 37620</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17422; 36137</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19743; 39117</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28061; 47311</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>29528</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6836</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>11362</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5121</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>14204</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>8176</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4626</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>7590</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>43732</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>15011</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>15988</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>12711</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>21072; 39843</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2262; 12969</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>6168; 17884</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2073; 11085</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>8626; 21730</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3362; 15098</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1064; 10118</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3677; 13600</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>33605; 55816</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>8671; 23523</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>9544; 24269</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>7302; 21013</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>106686</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>83635</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>64442</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>47644</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>63492</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>70601</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>89206</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>154330</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>148212</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>154237</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>153648</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>88075; 126925</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>68102; 101429</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>67365; 101921</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>50125; 82915</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>36699; 60513</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>50884; 77900</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57639; 85697</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>64394; 106237</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>133854; 177728</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>127966; 169978</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>134773; 177346</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>127376; 181106</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>